--- a/branches/master/StructureDefinition-be-model-medicationline.xlsx
+++ b/branches/master/StructureDefinition-be-model-medicationline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:07:30+00:00</t>
+    <t>2024-04-07T12:14:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-be-model-medicationline.xlsx
+++ b/branches/master/StructureDefinition-be-model-medicationline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:14:10+00:00</t>
+    <t>2024-04-07T12:19:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-be-model-medicationline.xlsx
+++ b/branches/master/StructureDefinition-be-model-medicationline.xlsx
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:19:24+00:00</t>
+    <t>2024-04-07T13:15:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>eHealth Platform (https://www.ehealth.fgov.be/standards/fhir, message-structure@ehealth.fgov.be)</t>
+    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
   </si>
   <si>
     <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>

--- a/branches/master/StructureDefinition-be-model-medicationline.xlsx
+++ b/branches/master/StructureDefinition-be-model-medicationline.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Medication Treatment Line - logical model</t>
+    <t>Medication Line - logical model</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T13:15:37+00:00</t>
+    <t>2024-04-10T07:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A logical data model of the medication treatment line.</t>
+    <t>A logical data model of the medication line.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -299,7 +299,7 @@
 </t>
   </si>
   <si>
-    <t>Status of the treatment line entry</t>
+    <t>Status of the line entry</t>
   </si>
   <si>
     <t>be-model-medicationline.statusReason</t>
@@ -354,7 +354,7 @@
 </t>
   </si>
   <si>
-    <t>Category for the treatment line</t>
+    <t>Category for the line</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}

--- a/branches/master/StructureDefinition-be-model-medicationline.xlsx
+++ b/branches/master/StructureDefinition-be-model-medicationline.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="199">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T07:41:38+00:00</t>
+    <t>2024-05-06T21:25:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -631,12 +631,6 @@
   </si>
   <si>
     <t>Whether the medication needs a prescription or request to be dispensed</t>
-  </si>
-  <si>
-    <t>be-model-medicationline.visibility</t>
-  </si>
-  <si>
-    <t>Whether the patient has explicitly requested the medication line not to be seen - when other rules don't prevail</t>
   </si>
 </sst>
 </file>
@@ -949,7 +943,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5951,106 +5945,6 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
